--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E8" s="3">
         <v>3300</v>
       </c>
       <c r="F8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3000</v>
       </c>
       <c r="J8" s="3">
         <v>3000</v>
@@ -765,25 +772,31 @@
         <v>3000</v>
       </c>
       <c r="L8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="N8" s="3">
         <v>2900</v>
       </c>
       <c r="O8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="P8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Q8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,40 +1150,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1141,13 +1194,19 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,25 +1217,25 @@
         <v>2400</v>
       </c>
       <c r="F18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G18" s="3">
         <v>2400</v>
       </c>
       <c r="H18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J18" s="3">
         <v>2300</v>
       </c>
       <c r="K18" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M18" s="3">
         <v>2500</v>
@@ -1185,16 +1244,22 @@
         <v>2400</v>
       </c>
       <c r="O18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,43 +1291,49 @@
         <v>-2100</v>
       </c>
       <c r="F20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2200</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
       </c>
       <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,43 +1344,49 @@
         <v>400</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,40 +1453,46 @@
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1427,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1442,13 +1533,19 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1606,52 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1659,52 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,21 +1776,21 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,43 +1927,49 @@
         <v>2100</v>
       </c>
       <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2200</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
       </c>
       <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1977,52 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2083,110 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="3">
         <v>1600</v>
       </c>
       <c r="G41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F42" s="3">
         <v>20500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>21400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>20000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>19900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>19100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>18100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>18700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>21000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2398,40 +2613,46 @@
         <v>5000</v>
       </c>
       <c r="G48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5700</v>
       </c>
       <c r="K48" s="3">
         <v>5700</v>
       </c>
       <c r="L48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="M48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="N48" s="3">
         <v>5800</v>
       </c>
       <c r="O48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E54" s="3">
         <v>328800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="G54" s="3">
         <v>330800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>319400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>321000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>316700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>318400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>312900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>309400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>304500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>308500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>305300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>305800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>295100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,43 +3288,49 @@
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>800</v>
+      </c>
+      <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>263000</v>
+      </c>
+      <c r="F66" s="3">
         <v>262700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>264500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>252900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>254100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>249300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>251200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>245400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>241800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>237400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>241300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>238000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>238400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>227600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F72" s="3">
         <v>33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>33900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>34100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>34300</v>
       </c>
       <c r="I72" s="3">
         <v>34100</v>
       </c>
       <c r="J72" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K72" s="3">
+        <v>34100</v>
+      </c>
+      <c r="L72" s="3">
         <v>34400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>34600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>34100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>34200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>34300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>34500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>34700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F76" s="3">
         <v>66000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>66300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>66500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>66800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>67400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>67200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>67500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>67700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>67100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>67100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>67200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>67500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>67500</v>
       </c>
       <c r="Q76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>67500</v>
+      </c>
+      <c r="S76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +4159,52 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>600</v>
       </c>
       <c r="N89" s="3">
         <v>500</v>
       </c>
       <c r="O89" s="3">
+        <v>600</v>
+      </c>
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>500</v>
+      </c>
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,22 +4614,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4199,31 +4640,37 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
         <v>4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4300</v>
       </c>
       <c r="H94" s="3">
         <v>1600</v>
       </c>
       <c r="I94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,22 +4847,24 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-400</v>
       </c>
       <c r="H96" s="3">
         <v>-400</v>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,119 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3300</v>
       </c>
       <c r="G8" s="3">
         <v>3300</v>
       </c>
       <c r="H8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3000</v>
       </c>
       <c r="L8" s="3">
         <v>3000</v>
@@ -778,25 +786,31 @@
         <v>3000</v>
       </c>
       <c r="N8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="O8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="P8" s="3">
         <v>2900</v>
       </c>
       <c r="Q8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="R8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="S8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1204,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1200,13 +1254,19 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1274,7 @@
         <v>2300</v>
       </c>
       <c r="E18" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F18" s="3">
         <v>2300</v>
@@ -1223,25 +1283,25 @@
         <v>2400</v>
       </c>
       <c r="H18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I18" s="3">
         <v>2400</v>
       </c>
       <c r="J18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L18" s="3">
         <v>2300</v>
       </c>
       <c r="M18" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O18" s="3">
         <v>2500</v>
@@ -1250,16 +1310,22 @@
         <v>2400</v>
       </c>
       <c r="Q18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1345,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-15400</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
@@ -1297,43 +1365,49 @@
         <v>-2100</v>
       </c>
       <c r="H20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
       </c>
       <c r="J20" s="3">
         <v>-2100</v>
       </c>
       <c r="K20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1415,7 @@
         <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>400</v>
+        <v>-13100</v>
       </c>
       <c r="F21" s="3">
         <v>400</v>
@@ -1350,43 +1424,49 @@
         <v>400</v>
       </c>
       <c r="H21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,16 +1518,22 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>-13200</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
@@ -1459,40 +1545,46 @@
         <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,10 +1598,10 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1524,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1539,13 +1631,19 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>-13300</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>200</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>-13300</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>200</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,21 +1904,21 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +2049,22 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>15400</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
@@ -1933,96 +2073,108 @@
         <v>2100</v>
       </c>
       <c r="H32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>2100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2200</v>
       </c>
       <c r="J32" s="3">
         <v>2100</v>
       </c>
       <c r="K32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>-13300</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>200</v>
       </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>-13300</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>200</v>
       </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2399,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1900</v>
       </c>
       <c r="H41" s="3">
         <v>1600</v>
       </c>
       <c r="I41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F42" s="3">
         <v>24600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>19800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>20500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>21400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>20000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>19100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>18100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>16900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>19500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>19600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>18700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>21000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2808,22 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
         <v>5000</v>
@@ -2619,48 +2835,54 @@
         <v>5000</v>
       </c>
       <c r="I48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5700</v>
       </c>
       <c r="M48" s="3">
         <v>5700</v>
       </c>
       <c r="N48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="O48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="P48" s="3">
         <v>5800</v>
       </c>
       <c r="Q48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S48" s="3">
         <v>5900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="F49" s="3">
         <v>14500</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="U49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>321100</v>
+      </c>
+      <c r="F54" s="3">
         <v>331000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>328800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>328800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>330800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>319400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>321000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>316700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>318400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>312900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>309400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>304500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>308500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>305300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>305800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>295100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,31 +3385,37 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,16 +3562,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
@@ -3294,43 +3586,49 @@
         <v>700</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>800</v>
+      </c>
+      <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>275900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>269200</v>
+      </c>
+      <c r="F66" s="3">
         <v>265400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>263000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>262700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>264500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>252900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>254100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>249300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>251200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>245400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>241800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>237400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>241300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>238000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>238400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>227600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F72" s="3">
         <v>33600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>33900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>33900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>34100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>34300</v>
       </c>
       <c r="K72" s="3">
         <v>34100</v>
       </c>
       <c r="L72" s="3">
+        <v>34300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>34100</v>
+      </c>
+      <c r="N72" s="3">
         <v>34400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>34600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>34100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>34200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>34700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F76" s="3">
         <v>65600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>65800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>66000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>66300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>66500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>66800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>67400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>67200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>67500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>67700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>67100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>67100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>67200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>67500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>67500</v>
       </c>
       <c r="S76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>67500</v>
+      </c>
+      <c r="U76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>-13300</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>200</v>
       </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>600</v>
       </c>
       <c r="P89" s="3">
         <v>500</v>
       </c>
       <c r="Q89" s="3">
+        <v>600</v>
+      </c>
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>500</v>
+      </c>
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,19 +5067,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4646,31 +5088,37 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F94" s="3">
         <v>3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4300</v>
       </c>
       <c r="J94" s="3">
         <v>1600</v>
       </c>
       <c r="K94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,28 +5315,30 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
         <v>-400</v>
       </c>
       <c r="F96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-400</v>
       </c>
       <c r="J96" s="3">
         <v>-400</v>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>5100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2300</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,10 +765,10 @@
         <v>3000</v>
       </c>
       <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3">
         <v>3200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3300</v>
       </c>
       <c r="H8" s="3">
         <v>3300</v>
@@ -774,13 +777,13 @@
         <v>3300</v>
       </c>
       <c r="J8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K8" s="3">
         <v>3200</v>
       </c>
       <c r="L8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M8" s="3">
         <v>3000</v>
@@ -792,7 +795,7 @@
         <v>3000</v>
       </c>
       <c r="P8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Q8" s="3">
         <v>2900</v>
@@ -801,7 +804,7 @@
         <v>2900</v>
       </c>
       <c r="S8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="T8" s="3">
         <v>2800</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,37 +1231,38 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
@@ -1245,48 +1271,51 @@
         <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2400</v>
       </c>
       <c r="J18" s="3">
         <v>2400</v>
@@ -1295,7 +1324,7 @@
         <v>2400</v>
       </c>
       <c r="L18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M18" s="3">
         <v>2300</v>
@@ -1304,28 +1333,31 @@
         <v>2300</v>
       </c>
       <c r="O18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2400</v>
       </c>
       <c r="S18" s="3">
         <v>2400</v>
       </c>
       <c r="T18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="U18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,69 +1389,72 @@
         <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-15400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2100</v>
       </c>
       <c r="J20" s="3">
         <v>-2100</v>
       </c>
       <c r="K20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2100</v>
       </c>
       <c r="R20" s="3">
         <v>-2100</v>
       </c>
       <c r="S20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="T20" s="3">
         <v>-2000</v>
       </c>
       <c r="U20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>400</v>
       </c>
       <c r="G21" s="3">
         <v>400</v>
@@ -1430,7 +1466,7 @@
         <v>400</v>
       </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
@@ -1439,34 +1475,37 @@
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>500</v>
       </c>
       <c r="T21" s="3">
         <v>500</v>
       </c>
       <c r="U21" s="3">
+        <v>500</v>
+      </c>
+      <c r="V21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,19 +1563,22 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
@@ -1551,40 +1593,43 @@
         <v>300</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
       </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1649,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1622,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1637,13 +1682,16 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,19 +1749,22 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
@@ -1722,57 +1773,60 @@
         <v>200</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>300</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
@@ -1781,46 +1835,49 @@
         <v>200</v>
       </c>
       <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>300</v>
       </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,18 +1970,18 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,69 +2133,72 @@
         <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>15400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2100</v>
       </c>
       <c r="J32" s="3">
         <v>2100</v>
       </c>
       <c r="K32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2100</v>
       </c>
       <c r="R32" s="3">
         <v>2100</v>
       </c>
       <c r="S32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="T32" s="3">
         <v>2000</v>
       </c>
       <c r="U32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
@@ -2135,46 +2207,49 @@
         <v>200</v>
       </c>
       <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
       <c r="S33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>300</v>
       </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,19 +2307,22 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
@@ -2253,110 +2331,116 @@
         <v>200</v>
       </c>
       <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
       <c r="S35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>300</v>
       </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1700</v>
       </c>
       <c r="F41" s="3">
         <v>1700</v>
       </c>
       <c r="G41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E42" s="3">
         <v>22900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,19 +2918,22 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
         <v>4900</v>
       </c>
       <c r="F48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="3">
         <v>5000</v>
@@ -2841,13 +2948,13 @@
         <v>5000</v>
       </c>
       <c r="K48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="L48" s="3">
         <v>5600</v>
       </c>
       <c r="M48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="N48" s="3">
         <v>5700</v>
@@ -2856,7 +2963,7 @@
         <v>5700</v>
       </c>
       <c r="P48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="Q48" s="3">
         <v>5800</v>
@@ -2865,16 +2972,19 @@
         <v>5800</v>
       </c>
       <c r="S48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T48" s="3">
         <v>5900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>6000</v>
       </c>
       <c r="U48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2995,7 @@
         <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>14500</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>330700</v>
+      </c>
+      <c r="E54" s="3">
         <v>327700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>321100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>331000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>328800</v>
       </c>
       <c r="H54" s="3">
         <v>328800</v>
       </c>
       <c r="I54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="J54" s="3">
         <v>330800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>319400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>321000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>318400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>309400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>304500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>308500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>305300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>305800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>295100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,17 +3524,20 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3417,8 +3553,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,19 +3710,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -3592,7 +3737,7 @@
         <v>700</v>
       </c>
       <c r="J62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -3601,7 +3746,7 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -3610,7 +3755,7 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -3619,16 +3764,19 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E66" s="3">
         <v>275900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>269200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>265400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>263000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>264500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>252900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>254100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>249300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>251200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>241800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>237400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>241300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>238000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>238400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>227600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4134,55 +4307,58 @@
         <v>19900</v>
       </c>
       <c r="F72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G72" s="3">
         <v>33600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>33900</v>
       </c>
       <c r="J72" s="3">
         <v>33900</v>
       </c>
       <c r="K72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="L72" s="3">
         <v>34100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>34700</v>
       </c>
       <c r="U72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,49 +4552,49 @@
         <v>51800</v>
       </c>
       <c r="E76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F76" s="3">
         <v>51900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>65800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>67100</v>
       </c>
       <c r="Q76" s="3">
         <v>67100</v>
       </c>
       <c r="R76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="S76" s="3">
         <v>67200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>67500</v>
       </c>
       <c r="T76" s="3">
         <v>67500</v>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,83 +4664,89 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
@@ -4561,46 +4755,49 @@
         <v>200</v>
       </c>
       <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
       <c r="S81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>300</v>
       </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>500</v>
       </c>
       <c r="P89" s="3">
         <v>500</v>
       </c>
       <c r="Q89" s="3">
+        <v>500</v>
+      </c>
+      <c r="R89" s="3">
         <v>600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>500</v>
       </c>
       <c r="S89" s="3">
         <v>500</v>
       </c>
       <c r="T89" s="3">
+        <v>500</v>
+      </c>
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5073,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5082,7 +5302,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5094,20 +5314,20 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,7 +5559,7 @@
         <v>-300</v>
       </c>
       <c r="E96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F96" s="3">
         <v>-400</v>
@@ -5335,13 +5568,13 @@
         <v>-400</v>
       </c>
       <c r="H96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I96" s="3">
         <v>-300</v>
       </c>
       <c r="J96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K96" s="3">
         <v>-400</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>6400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>300</v>
       </c>
       <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
         <v>3000</v>
@@ -768,10 +772,10 @@
         <v>3000</v>
       </c>
       <c r="G8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="3">
         <v>3200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3300</v>
       </c>
       <c r="I8" s="3">
         <v>3300</v>
@@ -780,13 +784,13 @@
         <v>3300</v>
       </c>
       <c r="K8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="L8" s="3">
         <v>3200</v>
       </c>
       <c r="M8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N8" s="3">
         <v>3000</v>
@@ -798,7 +802,7 @@
         <v>3000</v>
       </c>
       <c r="Q8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="R8" s="3">
         <v>2900</v>
@@ -807,7 +811,7 @@
         <v>2900</v>
       </c>
       <c r="T8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="U8" s="3">
         <v>2800</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,40 +1258,41 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
@@ -1274,28 +1301,31 @@
         <v>700</v>
       </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,22 +1333,22 @@
         <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2400</v>
       </c>
       <c r="K18" s="3">
         <v>2400</v>
@@ -1327,7 +1357,7 @@
         <v>2400</v>
       </c>
       <c r="M18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="N18" s="3">
         <v>2300</v>
@@ -1336,28 +1366,31 @@
         <v>2300</v>
       </c>
       <c r="P18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2400</v>
       </c>
       <c r="T18" s="3">
         <v>2400</v>
       </c>
       <c r="U18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="V18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,84 +1413,88 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-15400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2100</v>
       </c>
       <c r="K20" s="3">
         <v>-2100</v>
       </c>
       <c r="L20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2100</v>
       </c>
       <c r="S20" s="3">
         <v>-2100</v>
       </c>
       <c r="T20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="U20" s="3">
         <v>-2000</v>
       </c>
       <c r="V20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>400</v>
@@ -1469,7 +1506,7 @@
         <v>400</v>
       </c>
       <c r="K21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
@@ -1478,34 +1515,37 @@
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>500</v>
       </c>
       <c r="U21" s="3">
         <v>500</v>
       </c>
       <c r="V21" s="3">
+        <v>500</v>
+      </c>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,22 +1606,25 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
@@ -1596,40 +1639,43 @@
         <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
       </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1698,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1670,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1685,13 +1731,16 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,22 +1801,25 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>200</v>
@@ -1776,60 +1828,63 @@
         <v>200</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
       </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>200</v>
@@ -1838,46 +1893,49 @@
         <v>200</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>300</v>
       </c>
       <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +1996,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1973,18 +2034,18 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,84 +2191,90 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
       </c>
       <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>15400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2100</v>
       </c>
       <c r="K32" s="3">
         <v>2100</v>
       </c>
       <c r="L32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2100</v>
       </c>
       <c r="S32" s="3">
         <v>2100</v>
       </c>
       <c r="T32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="U32" s="3">
         <v>2000</v>
       </c>
       <c r="V32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>200</v>
@@ -2210,46 +2283,49 @@
         <v>200</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
       </c>
       <c r="T33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>300</v>
       </c>
       <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,22 +2386,25 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>200</v>
@@ -2334,113 +2413,119 @@
         <v>200</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
       </c>
       <c r="T35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>300</v>
       </c>
       <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1700</v>
       </c>
       <c r="G41" s="3">
         <v>1700</v>
       </c>
       <c r="H41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E42" s="3">
         <v>20500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>21000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,13 +3038,13 @@
         <v>4800</v>
       </c>
       <c r="E48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F48" s="3">
         <v>4900</v>
       </c>
       <c r="G48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H48" s="3">
         <v>5000</v>
@@ -2951,13 +3059,13 @@
         <v>5000</v>
       </c>
       <c r="L48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="M48" s="3">
         <v>5600</v>
       </c>
       <c r="N48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="O48" s="3">
         <v>5700</v>
@@ -2966,7 +3074,7 @@
         <v>5700</v>
       </c>
       <c r="Q48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="R48" s="3">
         <v>5800</v>
@@ -2975,16 +3083,19 @@
         <v>5800</v>
       </c>
       <c r="T48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U48" s="3">
         <v>5900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>6000</v>
       </c>
       <c r="V48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2998,7 +3109,7 @@
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>14500</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E54" s="3">
         <v>330700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>327700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>321100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>331000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>328800</v>
       </c>
       <c r="I54" s="3">
         <v>328800</v>
       </c>
       <c r="J54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="K54" s="3">
         <v>330800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>319400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>321000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>318400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>312900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>309400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>304500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>308500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>305300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>305800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>295100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,20 +3661,23 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3556,8 +3693,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,22 +3856,25 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -3740,7 +3886,7 @@
         <v>700</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3749,7 +3895,7 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -3758,7 +3904,7 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
@@ -3767,16 +3913,19 @@
         <v>700</v>
       </c>
       <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E66" s="3">
         <v>278800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>275900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>269200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>265400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>263000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>264500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>252900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>254100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>249300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>251200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>241800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>237400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>241300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>238000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>238400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>227600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,13 +4466,16 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E72" s="3">
         <v>19900</v>
@@ -4310,55 +4484,58 @@
         <v>19900</v>
       </c>
       <c r="G72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H72" s="3">
         <v>33600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>33900</v>
       </c>
       <c r="K72" s="3">
         <v>33900</v>
       </c>
       <c r="L72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="M72" s="3">
         <v>34100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>34700</v>
       </c>
       <c r="V72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,61 +4726,64 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="E76" s="3">
         <v>51800</v>
       </c>
       <c r="F76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="G76" s="3">
         <v>51900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>65600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>66000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>67100</v>
       </c>
       <c r="R76" s="3">
         <v>67100</v>
       </c>
       <c r="S76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="T76" s="3">
         <v>67200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>67500</v>
       </c>
       <c r="U76" s="3">
         <v>67500</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,89 +4856,95 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>200</v>
@@ -4758,46 +4953,49 @@
         <v>200</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
       </c>
       <c r="T81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>300</v>
       </c>
       <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>500</v>
       </c>
       <c r="Q89" s="3">
         <v>500</v>
       </c>
       <c r="R89" s="3">
+        <v>500</v>
+      </c>
+      <c r="S89" s="3">
         <v>600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>500</v>
       </c>
       <c r="T89" s="3">
         <v>500</v>
       </c>
       <c r="U89" s="3">
+        <v>500</v>
+      </c>
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5296,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5305,7 +5526,7 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5317,20 +5538,20 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5562,7 +5796,7 @@
         <v>-300</v>
       </c>
       <c r="F96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G96" s="3">
         <v>-400</v>
@@ -5571,13 +5805,13 @@
         <v>-400</v>
       </c>
       <c r="I96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J96" s="3">
         <v>-300</v>
       </c>
       <c r="K96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L96" s="3">
         <v>-400</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>300</v>
       </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,146 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3000</v>
       </c>
       <c r="G8" s="3">
         <v>3000</v>
       </c>
       <c r="H8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="3">
         <v>3200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3300</v>
       </c>
       <c r="K8" s="3">
         <v>3300</v>
       </c>
       <c r="L8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3000</v>
       </c>
       <c r="P8" s="3">
         <v>3000</v>
@@ -805,25 +813,31 @@
         <v>3000</v>
       </c>
       <c r="R8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="S8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="T8" s="3">
         <v>2900</v>
       </c>
       <c r="U8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="V8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="W8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,49 +1322,49 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
@@ -1319,33 +1373,39 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2200</v>
       </c>
       <c r="H18" s="3">
         <v>2300</v>
       </c>
       <c r="I18" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J18" s="3">
         <v>2300</v>
@@ -1354,25 +1414,25 @@
         <v>2400</v>
       </c>
       <c r="L18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M18" s="3">
         <v>2400</v>
       </c>
       <c r="N18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="O18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="P18" s="3">
         <v>2300</v>
       </c>
       <c r="Q18" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="R18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="S18" s="3">
         <v>2500</v>
@@ -1381,16 +1441,22 @@
         <v>2400</v>
       </c>
       <c r="U18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V18" s="3">
         <v>2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,19 +1491,19 @@
         <v>-1800</v>
       </c>
       <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2100</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
@@ -1444,63 +1512,69 @@
         <v>-2100</v>
       </c>
       <c r="L20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2200</v>
       </c>
       <c r="N20" s="3">
         <v>-2100</v>
       </c>
       <c r="O20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-13100</v>
       </c>
       <c r="H21" s="3">
         <v>400</v>
       </c>
       <c r="I21" s="3">
-        <v>400</v>
+        <v>-13100</v>
       </c>
       <c r="J21" s="3">
         <v>400</v>
@@ -1509,43 +1583,49 @@
         <v>400</v>
       </c>
       <c r="L21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P21" s="3">
         <v>300</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,28 +1689,34 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>300</v>
@@ -1642,45 +1728,51 @@
         <v>300</v>
       </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1701,10 +1793,10 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1719,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1734,13 +1826,19 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,11 +2147,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2037,21 +2159,21 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,19 +2343,19 @@
         <v>1800</v>
       </c>
       <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2100</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
@@ -2224,108 +2364,120 @@
         <v>2100</v>
       </c>
       <c r="L32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>2100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2200</v>
       </c>
       <c r="N32" s="3">
         <v>2100</v>
       </c>
       <c r="O32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2746,152 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1900</v>
       </c>
       <c r="L41" s="3">
         <v>1600</v>
       </c>
       <c r="M41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F42" s="3">
         <v>19800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>20500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>22900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>20800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>24600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>21400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>19800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>19100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>18100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>16900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>19500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>19600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>18700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>21000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,28 +3239,34 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5000</v>
       </c>
       <c r="J48" s="3">
         <v>5000</v>
@@ -3062,40 +3278,46 @@
         <v>5000</v>
       </c>
       <c r="M48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5700</v>
       </c>
       <c r="Q48" s="3">
         <v>5700</v>
       </c>
       <c r="R48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="S48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="T48" s="3">
         <v>5800</v>
       </c>
       <c r="U48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="W48" s="3">
         <v>5900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3112,10 +3334,10 @@
         <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="J49" s="3">
         <v>14500</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>338100</v>
+      </c>
+      <c r="F54" s="3">
         <v>332600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>330700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>327700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>321100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>331000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>328800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>328800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>330800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>319400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>321000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>316700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>318400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>312900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>309400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>304500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>308500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>305300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>305800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>295100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3861,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,26 +3932,32 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3696,11 +3970,11 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3729,8 +4003,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,28 +4145,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
@@ -3889,43 +4181,49 @@
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
       </c>
       <c r="U62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>800</v>
+      </c>
+      <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>285800</v>
+      </c>
+      <c r="F66" s="3">
         <v>280700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>278800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>275900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>269200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>265400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>263000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>262700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>264500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>252900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>254100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>249300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>251200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>245400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>241800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>237400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>241300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>238000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>238400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>227600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F72" s="3">
         <v>20000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>19900</v>
       </c>
       <c r="G72" s="3">
         <v>19900</v>
       </c>
       <c r="H72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J72" s="3">
         <v>33600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>33800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>33900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>33900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>34100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>34300</v>
       </c>
       <c r="O72" s="3">
         <v>34100</v>
       </c>
       <c r="P72" s="3">
+        <v>34300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>34100</v>
+      </c>
+      <c r="R72" s="3">
         <v>34400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>34100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>34200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>34300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>34500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>34700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>52300</v>
+      </c>
+      <c r="F76" s="3">
         <v>51900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>51800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>51800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>51900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>65600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>65800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>66000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>66300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>66500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>67400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>67200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>67500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>67700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>67100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>67100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>67200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>67500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>67500</v>
       </c>
       <c r="W76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>67500</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>600</v>
       </c>
       <c r="T89" s="3">
         <v>500</v>
       </c>
       <c r="U89" s="3">
+        <v>600</v>
+      </c>
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>500</v>
+      </c>
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5939,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5520,19 +5962,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5541,31 +5983,37 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-4300</v>
       </c>
       <c r="N94" s="3">
         <v>1600</v>
       </c>
       <c r="O94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-12000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6250,15 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E96" s="3">
         <v>-300</v>
@@ -5799,25 +6267,25 @@
         <v>-300</v>
       </c>
       <c r="G96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I96" s="3">
         <v>-400</v>
       </c>
       <c r="J96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-400</v>
       </c>
       <c r="N96" s="3">
         <v>-400</v>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>10400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>-300</v>
       </c>
       <c r="L102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,125 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3000</v>
       </c>
       <c r="H8" s="3">
         <v>3000</v>
@@ -789,10 +792,10 @@
         <v>3000</v>
       </c>
       <c r="J8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3300</v>
       </c>
       <c r="L8" s="3">
         <v>3300</v>
@@ -801,13 +804,13 @@
         <v>3300</v>
       </c>
       <c r="N8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="O8" s="3">
         <v>3200</v>
       </c>
       <c r="P8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" s="3">
         <v>3000</v>
@@ -819,7 +822,7 @@
         <v>3000</v>
       </c>
       <c r="T8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="U8" s="3">
         <v>2900</v>
@@ -828,7 +831,7 @@
         <v>2900</v>
       </c>
       <c r="W8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="X8" s="3">
         <v>2800</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,13 +1338,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1328,34 +1354,34 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
@@ -1364,60 +1390,63 @@
         <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2400</v>
       </c>
       <c r="G18" s="3">
         <v>2400</v>
       </c>
       <c r="H18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2400</v>
       </c>
       <c r="N18" s="3">
         <v>2400</v>
@@ -1426,7 +1455,7 @@
         <v>2400</v>
       </c>
       <c r="P18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="Q18" s="3">
         <v>2300</v>
@@ -1435,28 +1464,31 @@
         <v>2300</v>
       </c>
       <c r="S18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>2400</v>
       </c>
       <c r="W18" s="3">
         <v>2400</v>
       </c>
       <c r="X18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Y18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,93 +1524,96 @@
         <v>-1800</v>
       </c>
       <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1900</v>
       </c>
       <c r="H20" s="3">
         <v>-1900</v>
       </c>
       <c r="I20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-15400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2100</v>
       </c>
       <c r="N20" s="3">
         <v>-2100</v>
       </c>
       <c r="O20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2100</v>
       </c>
       <c r="V20" s="3">
         <v>-2100</v>
       </c>
       <c r="W20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="X20" s="3">
         <v>-2000</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
         <v>800</v>
       </c>
       <c r="F21" s="3">
+        <v>800</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>400</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
@@ -1589,7 +1625,7 @@
         <v>400</v>
       </c>
       <c r="N21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
@@ -1598,34 +1634,37 @@
         <v>300</v>
       </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>500</v>
       </c>
       <c r="X21" s="3">
         <v>500</v>
       </c>
       <c r="Y21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,31 +1734,34 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>800</v>
       </c>
       <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
@@ -1734,48 +1776,51 @@
         <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>300</v>
       </c>
       <c r="V23" s="3">
         <v>300</v>
       </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1799,7 +1844,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1817,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1832,13 +1877,16 @@
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,31 +1956,34 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
@@ -1941,69 +1992,72 @@
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
       </c>
       <c r="W26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X26" s="3">
         <v>300</v>
       </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
@@ -2012,46 +2066,49 @@
         <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
       </c>
       <c r="W27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X27" s="3">
         <v>300</v>
       </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,8 +2213,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2165,18 +2225,18 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,93 +2412,96 @@
         <v>1800</v>
       </c>
       <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1900</v>
       </c>
       <c r="H32" s="3">
         <v>1900</v>
       </c>
       <c r="I32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>15400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2100</v>
       </c>
       <c r="N32" s="3">
         <v>2100</v>
       </c>
       <c r="O32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2100</v>
       </c>
       <c r="V32" s="3">
         <v>2100</v>
       </c>
       <c r="W32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="X32" s="3">
         <v>2000</v>
       </c>
       <c r="Y32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
@@ -2438,46 +2510,49 @@
         <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>200</v>
       </c>
       <c r="V33" s="3">
         <v>200</v>
       </c>
       <c r="W33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X33" s="3">
         <v>300</v>
       </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,31 +2622,34 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
@@ -2580,122 +2658,128 @@
         <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>200</v>
       </c>
       <c r="V35" s="3">
         <v>200</v>
       </c>
       <c r="W35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X35" s="3">
         <v>300</v>
       </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1700</v>
       </c>
       <c r="J41" s="3">
         <v>1700</v>
       </c>
       <c r="K41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E42" s="3">
         <v>30800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>18700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>21000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,31 +3349,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
         <v>4700</v>
       </c>
       <c r="F48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G48" s="3">
         <v>4800</v>
       </c>
       <c r="H48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I48" s="3">
         <v>4900</v>
       </c>
       <c r="J48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K48" s="3">
         <v>5000</v>
@@ -3284,13 +3391,13 @@
         <v>5000</v>
       </c>
       <c r="O48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="P48" s="3">
         <v>5600</v>
       </c>
       <c r="Q48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="R48" s="3">
         <v>5700</v>
@@ -3299,7 +3406,7 @@
         <v>5700</v>
       </c>
       <c r="T48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="U48" s="3">
         <v>5800</v>
@@ -3308,16 +3415,19 @@
         <v>5800</v>
       </c>
       <c r="W48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="X48" s="3">
         <v>5900</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6000</v>
       </c>
       <c r="Y48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +3450,7 @@
         <v>900</v>
       </c>
       <c r="J49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>14500</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>339600</v>
+      </c>
+      <c r="E54" s="3">
         <v>336900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>338100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>332600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>330700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>327700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>321100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>331000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>328800</v>
       </c>
       <c r="L54" s="3">
         <v>328800</v>
       </c>
       <c r="M54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="N54" s="3">
         <v>330800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>319400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>321000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>316700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>318400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>312900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>309400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>304500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>308500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>305300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>305800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>295100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,29 +4071,32 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3976,8 +4112,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4163,19 +4308,19 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
@@ -4187,7 +4332,7 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
@@ -4196,7 +4341,7 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -4205,7 +4350,7 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
@@ -4214,16 +4359,19 @@
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>700</v>
+      </c>
+      <c r="X62" s="3">
         <v>800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E66" s="3">
         <v>284400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>285800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>278800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>275900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>269200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>265400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>263000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>262700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>264500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>252900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>254100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>249300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>251200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>245400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>241800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>237400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>238000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>238400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>227600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,22 +4987,25 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E72" s="3">
         <v>20600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>19900</v>
       </c>
       <c r="H72" s="3">
         <v>19900</v>
@@ -4841,55 +5014,58 @@
         <v>19900</v>
       </c>
       <c r="J72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K72" s="3">
         <v>33600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>33900</v>
       </c>
       <c r="N72" s="3">
         <v>33900</v>
       </c>
       <c r="O72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="P72" s="3">
         <v>34100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34500</v>
-      </c>
-      <c r="X72" s="3">
-        <v>34700</v>
       </c>
       <c r="Y72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,70 +5283,73 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E76" s="3">
         <v>52500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>51800</v>
       </c>
       <c r="H76" s="3">
         <v>51800</v>
       </c>
       <c r="I76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="J76" s="3">
         <v>51900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>65600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>67100</v>
       </c>
       <c r="U76" s="3">
         <v>67100</v>
       </c>
       <c r="V76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="W76" s="3">
         <v>67200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>67500</v>
       </c>
       <c r="X76" s="3">
         <v>67500</v>
@@ -5172,8 +5357,11 @@
       <c r="Y76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,107 +5431,113 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
@@ -5352,46 +5546,49 @@
         <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>200</v>
       </c>
       <c r="V81" s="3">
         <v>200</v>
       </c>
       <c r="W81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X81" s="3">
         <v>300</v>
       </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>500</v>
       </c>
       <c r="T89" s="3">
         <v>500</v>
       </c>
       <c r="U89" s="3">
+        <v>500</v>
+      </c>
+      <c r="V89" s="3">
         <v>600</v>
-      </c>
-      <c r="V89" s="3">
-        <v>500</v>
       </c>
       <c r="W89" s="3">
         <v>500</v>
       </c>
       <c r="X89" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,17 +6160,18 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5968,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5977,7 +6197,7 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5989,20 +6209,20 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E94" s="3">
         <v>4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,16 +6484,17 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-300</v>
       </c>
       <c r="F96" s="3">
         <v>-300</v>
@@ -6273,7 +6506,7 @@
         <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J96" s="3">
         <v>-400</v>
@@ -6282,13 +6515,13 @@
         <v>-400</v>
       </c>
       <c r="L96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M96" s="3">
         <v>-300</v>
       </c>
       <c r="N96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O96" s="3">
         <v>-400</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E102" s="3">
         <v>4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>300</v>
       </c>
       <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3000</v>
       </c>
       <c r="I8" s="3">
         <v>3000</v>
@@ -795,10 +799,10 @@
         <v>3000</v>
       </c>
       <c r="K8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="3">
         <v>3200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3300</v>
       </c>
       <c r="M8" s="3">
         <v>3300</v>
@@ -807,13 +811,13 @@
         <v>3300</v>
       </c>
       <c r="O8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="P8" s="3">
         <v>3200</v>
       </c>
       <c r="Q8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="R8" s="3">
         <v>3000</v>
@@ -825,7 +829,7 @@
         <v>3000</v>
       </c>
       <c r="U8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="V8" s="3">
         <v>2900</v>
@@ -834,7 +838,7 @@
         <v>2900</v>
       </c>
       <c r="X8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Y8" s="3">
         <v>2800</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,16 +1365,17 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1357,34 +1384,34 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
@@ -1393,63 +1420,66 @@
         <v>700</v>
       </c>
       <c r="T17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2400</v>
       </c>
       <c r="H18" s="3">
         <v>2400</v>
       </c>
       <c r="I18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2400</v>
       </c>
       <c r="O18" s="3">
         <v>2400</v>
@@ -1458,7 +1488,7 @@
         <v>2400</v>
       </c>
       <c r="Q18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="R18" s="3">
         <v>2300</v>
@@ -1467,28 +1497,31 @@
         <v>2300</v>
       </c>
       <c r="T18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>2400</v>
       </c>
       <c r="X18" s="3">
         <v>2400</v>
       </c>
       <c r="Y18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Z18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,96 +1561,99 @@
         <v>-1800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1900</v>
       </c>
       <c r="I20" s="3">
         <v>-1900</v>
       </c>
       <c r="J20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2100</v>
       </c>
       <c r="O20" s="3">
         <v>-2100</v>
       </c>
       <c r="P20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2100</v>
       </c>
       <c r="W20" s="3">
         <v>-2100</v>
       </c>
       <c r="X20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="Y20" s="3">
         <v>-2000</v>
       </c>
       <c r="Z20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>800</v>
       </c>
       <c r="F21" s="3">
         <v>800</v>
       </c>
       <c r="G21" s="3">
+        <v>800</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
@@ -1628,7 +1665,7 @@
         <v>400</v>
       </c>
       <c r="O21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>300</v>
@@ -1637,34 +1674,37 @@
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>500</v>
       </c>
       <c r="Y21" s="3">
         <v>500</v>
       </c>
       <c r="Z21" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,25 +1789,25 @@
         <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F23" s="3">
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>800</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>300</v>
@@ -1779,40 +1822,43 @@
         <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>200</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>300</v>
       </c>
       <c r="W23" s="3">
         <v>300</v>
       </c>
       <c r="X23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,10 +1866,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1847,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1865,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -1880,13 +1926,16 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,34 +2008,37 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
@@ -1995,72 +2047,75 @@
         <v>200</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
       <c r="X26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y26" s="3">
         <v>300</v>
       </c>
       <c r="Z26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
@@ -2069,46 +2124,49 @@
         <v>200</v>
       </c>
       <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>200</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
       <c r="X27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y27" s="3">
         <v>300</v>
       </c>
       <c r="Z27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,8 +2277,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2228,18 +2289,18 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,96 +2485,99 @@
         <v>1800</v>
       </c>
       <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1900</v>
       </c>
       <c r="I32" s="3">
         <v>1900</v>
       </c>
       <c r="J32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2100</v>
       </c>
       <c r="O32" s="3">
         <v>2100</v>
       </c>
       <c r="P32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2100</v>
       </c>
       <c r="W32" s="3">
         <v>2100</v>
       </c>
       <c r="X32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Y32" s="3">
         <v>2000</v>
       </c>
       <c r="Z32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
@@ -2513,46 +2586,49 @@
         <v>200</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>200</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
       <c r="X33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y33" s="3">
         <v>300</v>
       </c>
       <c r="Z33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,34 +2701,37 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
@@ -2661,125 +2740,131 @@
         <v>200</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>200</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
       <c r="X35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y35" s="3">
         <v>300</v>
       </c>
       <c r="Z35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
       </c>
       <c r="L41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E42" s="3">
         <v>48800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>18700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>21000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,25 +3469,25 @@
         <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="3">
         <v>4700</v>
       </c>
       <c r="G48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H48" s="3">
         <v>4800</v>
       </c>
       <c r="I48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J48" s="3">
         <v>4900</v>
       </c>
       <c r="K48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="L48" s="3">
         <v>5000</v>
@@ -3394,13 +3502,13 @@
         <v>5000</v>
       </c>
       <c r="P48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="Q48" s="3">
         <v>5600</v>
       </c>
       <c r="R48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="S48" s="3">
         <v>5700</v>
@@ -3409,7 +3517,7 @@
         <v>5700</v>
       </c>
       <c r="U48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="V48" s="3">
         <v>5800</v>
@@ -3418,16 +3526,19 @@
         <v>5800</v>
       </c>
       <c r="X48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Y48" s="3">
         <v>5900</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>6000</v>
       </c>
       <c r="Z48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3453,7 +3564,7 @@
         <v>900</v>
       </c>
       <c r="K49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="L49" s="3">
         <v>14500</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>333900</v>
+      </c>
+      <c r="E54" s="3">
         <v>339600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>336900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>338100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>332600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>330700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>327700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>321100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>331000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>328800</v>
       </c>
       <c r="M54" s="3">
         <v>328800</v>
       </c>
       <c r="N54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="O54" s="3">
         <v>330800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>319400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>321000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>316700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>318400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>312900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>309400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>304500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>308500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>305300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>305800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>295100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,32 +4208,35 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4115,8 +4252,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -4311,19 +4457,19 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -4335,7 +4481,7 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -4344,7 +4490,7 @@
         <v>600</v>
       </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
@@ -4353,7 +4499,7 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>700</v>
@@ -4362,16 +4508,19 @@
         <v>700</v>
       </c>
       <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E66" s="3">
         <v>286900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>285800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>280700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>278800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>275900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>269200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>265400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>263000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>264500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>252900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>254100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>249300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>251200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>245400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>241800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>237400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>241300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>238000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>238400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>227600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4999,16 +5173,16 @@
         <v>20700</v>
       </c>
       <c r="E72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F72" s="3">
         <v>20600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>19900</v>
       </c>
       <c r="I72" s="3">
         <v>19900</v>
@@ -5017,55 +5191,58 @@
         <v>19900</v>
       </c>
       <c r="K72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L72" s="3">
         <v>33600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>33900</v>
       </c>
       <c r="O72" s="3">
         <v>33900</v>
       </c>
       <c r="P72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>34500</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>34700</v>
       </c>
       <c r="Z72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,73 +5469,76 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E76" s="3">
         <v>52700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>51800</v>
       </c>
       <c r="I76" s="3">
         <v>51800</v>
       </c>
       <c r="J76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K76" s="3">
         <v>51900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>67100</v>
       </c>
       <c r="V76" s="3">
         <v>67100</v>
       </c>
       <c r="W76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="X76" s="3">
         <v>67200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>67500</v>
       </c>
       <c r="Y76" s="3">
         <v>67500</v>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,113 +5623,119 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
@@ -5549,46 +5744,49 @@
         <v>200</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>200</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
       <c r="X81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y81" s="3">
         <v>300</v>
       </c>
       <c r="Z81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>500</v>
       </c>
       <c r="U89" s="3">
         <v>500</v>
       </c>
       <c r="V89" s="3">
+        <v>500</v>
+      </c>
+      <c r="W89" s="3">
         <v>600</v>
-      </c>
-      <c r="W89" s="3">
-        <v>500</v>
       </c>
       <c r="X89" s="3">
         <v>500</v>
       </c>
       <c r="Y89" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,11 +6391,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6191,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -6200,7 +6421,7 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6212,20 +6433,20 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E94" s="3">
         <v>17400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,10 +6728,10 @@
         <v>-300</v>
       </c>
       <c r="E96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-300</v>
       </c>
       <c r="G96" s="3">
         <v>-300</v>
@@ -6509,7 +6743,7 @@
         <v>-300</v>
       </c>
       <c r="J96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K96" s="3">
         <v>-400</v>
@@ -6518,13 +6752,13 @@
         <v>-400</v>
       </c>
       <c r="M96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N96" s="3">
         <v>-300</v>
       </c>
       <c r="O96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P96" s="3">
         <v>-400</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>19400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>300</v>
       </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,19 +785,19 @@
         <v>2600</v>
       </c>
       <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3000</v>
       </c>
       <c r="J8" s="3">
         <v>3000</v>
@@ -802,10 +806,10 @@
         <v>3000</v>
       </c>
       <c r="L8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="3">
         <v>3200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3300</v>
       </c>
       <c r="N8" s="3">
         <v>3300</v>
@@ -814,13 +818,13 @@
         <v>3300</v>
       </c>
       <c r="P8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="Q8" s="3">
         <v>3200</v>
       </c>
       <c r="R8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="S8" s="3">
         <v>3000</v>
@@ -832,7 +836,7 @@
         <v>3000</v>
       </c>
       <c r="V8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="W8" s="3">
         <v>2900</v>
@@ -841,7 +845,7 @@
         <v>2900</v>
       </c>
       <c r="Y8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Z8" s="3">
         <v>2800</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,19 +1392,20 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1387,34 +1414,34 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
       </c>
       <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
@@ -1423,66 +1450,69 @@
         <v>700</v>
       </c>
       <c r="U17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2400</v>
       </c>
       <c r="I18" s="3">
         <v>2400</v>
       </c>
       <c r="J18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2400</v>
       </c>
       <c r="P18" s="3">
         <v>2400</v>
@@ -1491,7 +1521,7 @@
         <v>2400</v>
       </c>
       <c r="R18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="S18" s="3">
         <v>2300</v>
@@ -1500,28 +1530,31 @@
         <v>2300</v>
       </c>
       <c r="U18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>2400</v>
       </c>
       <c r="Y18" s="3">
         <v>2400</v>
       </c>
       <c r="Z18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="AA18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,99 +1598,102 @@
         <v>-1800</v>
       </c>
       <c r="G20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1900</v>
       </c>
       <c r="J20" s="3">
         <v>-1900</v>
       </c>
       <c r="K20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-15400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2100</v>
       </c>
       <c r="P20" s="3">
         <v>-2100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2100</v>
       </c>
       <c r="X20" s="3">
         <v>-2100</v>
       </c>
       <c r="Y20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="Z20" s="3">
         <v>-2000</v>
       </c>
       <c r="AA20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>800</v>
       </c>
       <c r="G21" s="3">
         <v>800</v>
       </c>
       <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>400</v>
       </c>
       <c r="M21" s="3">
         <v>400</v>
@@ -1668,7 +1705,7 @@
         <v>400</v>
       </c>
       <c r="P21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
@@ -1677,34 +1714,37 @@
         <v>300</v>
       </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>500</v>
       </c>
       <c r="Z21" s="3">
         <v>500</v>
       </c>
       <c r="AA21" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,37 +1820,40 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G23" s="3">
         <v>800</v>
       </c>
       <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
@@ -1825,40 +1868,43 @@
         <v>300</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>300</v>
       </c>
       <c r="X23" s="3">
         <v>300</v>
       </c>
       <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,10 +1915,10 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1896,7 +1942,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1914,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
@@ -1929,13 +1975,16 @@
         <v>100</v>
       </c>
       <c r="Z24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,37 +2060,40 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
@@ -2050,75 +2102,78 @@
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>200</v>
       </c>
       <c r="X26" s="3">
         <v>200</v>
       </c>
       <c r="Y26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z26" s="3">
         <v>300</v>
       </c>
       <c r="AA26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
@@ -2127,46 +2182,49 @@
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>200</v>
       </c>
       <c r="X27" s="3">
         <v>200</v>
       </c>
       <c r="Y27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="3">
         <v>300</v>
       </c>
       <c r="AA27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2292,18 +2353,18 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,99 +2558,102 @@
         <v>1800</v>
       </c>
       <c r="G32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1900</v>
       </c>
       <c r="J32" s="3">
         <v>1900</v>
       </c>
       <c r="K32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L32" s="3">
         <v>15400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2100</v>
       </c>
       <c r="P32" s="3">
         <v>2100</v>
       </c>
       <c r="Q32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2100</v>
       </c>
       <c r="X32" s="3">
         <v>2100</v>
       </c>
       <c r="Y32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Z32" s="3">
         <v>2000</v>
       </c>
       <c r="AA32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
@@ -2589,46 +2662,49 @@
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>200</v>
       </c>
       <c r="X33" s="3">
         <v>200</v>
       </c>
       <c r="Y33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z33" s="3">
         <v>300</v>
       </c>
       <c r="AA33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,37 +2780,40 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
@@ -2743,128 +2822,134 @@
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>200</v>
       </c>
       <c r="X35" s="3">
         <v>200</v>
       </c>
       <c r="Y35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z35" s="3">
         <v>300</v>
       </c>
       <c r="AA35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1700</v>
       </c>
       <c r="L41" s="3">
         <v>1700</v>
       </c>
       <c r="M41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E42" s="3">
         <v>50300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>48800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>20100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>18700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>21000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,25 +3580,25 @@
         <v>4600</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G48" s="3">
         <v>4700</v>
       </c>
       <c r="H48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I48" s="3">
         <v>4800</v>
       </c>
       <c r="J48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K48" s="3">
         <v>4900</v>
       </c>
       <c r="L48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="M48" s="3">
         <v>5000</v>
@@ -3505,13 +3613,13 @@
         <v>5000</v>
       </c>
       <c r="Q48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="R48" s="3">
         <v>5600</v>
       </c>
       <c r="S48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="T48" s="3">
         <v>5700</v>
@@ -3520,7 +3628,7 @@
         <v>5700</v>
       </c>
       <c r="V48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="W48" s="3">
         <v>5800</v>
@@ -3529,16 +3637,19 @@
         <v>5800</v>
       </c>
       <c r="Y48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Z48" s="3">
         <v>5900</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>6000</v>
       </c>
       <c r="AA48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3678,7 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>14500</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>328100</v>
+      </c>
+      <c r="E54" s="3">
         <v>333900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>339600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>336900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>338100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>332600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>330700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>327700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>321100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>331000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>328800</v>
       </c>
       <c r="N54" s="3">
         <v>328800</v>
       </c>
       <c r="O54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="P54" s="3">
         <v>330800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>319400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>321000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>316700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>318400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>312900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>309400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>304500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>308500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>305300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>305800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>295100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,24 +4359,24 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4255,8 +4392,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -4460,19 +4606,19 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
@@ -4484,7 +4630,7 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -4493,7 +4639,7 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
@@ -4502,7 +4648,7 @@
         <v>400</v>
       </c>
       <c r="V62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
@@ -4511,16 +4657,19 @@
         <v>700</v>
       </c>
       <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E66" s="3">
         <v>281300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>286900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>284400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>285800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>278800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>275900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>269200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>265400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>263000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>264500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>252900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>254100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>249300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>251200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>245400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>237400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>241300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>238000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>238400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>227600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="E72" s="3">
         <v>20700</v>
       </c>
       <c r="F72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G72" s="3">
         <v>20600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>19900</v>
       </c>
       <c r="J72" s="3">
         <v>19900</v>
@@ -5194,55 +5368,58 @@
         <v>19900</v>
       </c>
       <c r="L72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M72" s="3">
         <v>33600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>33900</v>
       </c>
       <c r="P72" s="3">
         <v>33900</v>
       </c>
       <c r="Q72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="R72" s="3">
         <v>34100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>34300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>34500</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>34700</v>
       </c>
       <c r="AA72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,76 +5655,79 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>51800</v>
       </c>
       <c r="J76" s="3">
         <v>51800</v>
       </c>
       <c r="K76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="L76" s="3">
         <v>51900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67700</v>
-      </c>
-      <c r="V76" s="3">
-        <v>67100</v>
       </c>
       <c r="W76" s="3">
         <v>67100</v>
       </c>
       <c r="X76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>67200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>67500</v>
       </c>
       <c r="Z76" s="3">
         <v>67500</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,119 +5815,125 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
@@ -5747,46 +5942,49 @@
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>200</v>
       </c>
       <c r="X81" s="3">
         <v>200</v>
       </c>
       <c r="Y81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z81" s="3">
         <v>300</v>
       </c>
       <c r="AA81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>500</v>
       </c>
       <c r="V89" s="3">
         <v>500</v>
       </c>
       <c r="W89" s="3">
+        <v>500</v>
+      </c>
+      <c r="X89" s="3">
         <v>600</v>
-      </c>
-      <c r="X89" s="3">
-        <v>500</v>
       </c>
       <c r="Y89" s="3">
         <v>500</v>
       </c>
       <c r="Z89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6394,11 +6615,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6415,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -6424,7 +6645,7 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6436,20 +6657,20 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E94" s="3">
         <v>7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6731,10 +6965,10 @@
         <v>-300</v>
       </c>
       <c r="F96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-300</v>
       </c>
       <c r="H96" s="3">
         <v>-300</v>
@@ -6746,7 +6980,7 @@
         <v>-300</v>
       </c>
       <c r="K96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L96" s="3">
         <v>-400</v>
@@ -6755,13 +6989,13 @@
         <v>-400</v>
       </c>
       <c r="N96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O96" s="3">
         <v>-300</v>
       </c>
       <c r="P96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q96" s="3">
         <v>-400</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>10400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>300</v>
       </c>
       <c r="U102" s="3">
+        <v>300</v>
+      </c>
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3000</v>
       </c>
       <c r="L8" s="3">
         <v>3000</v>
       </c>
       <c r="M8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O8" s="3">
         <v>3200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3300</v>
       </c>
       <c r="P8" s="3">
         <v>3300</v>
       </c>
       <c r="Q8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3000</v>
       </c>
       <c r="U8" s="3">
         <v>3000</v>
@@ -839,25 +846,31 @@
         <v>3000</v>
       </c>
       <c r="W8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="X8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Y8" s="3">
         <v>2900</v>
       </c>
       <c r="Z8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AA8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AB8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,73 +1444,75 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
       </c>
       <c r="Q17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>700</v>
       </c>
       <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>500</v>
@@ -1468,48 +1521,54 @@
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="3">
         <v>2300</v>
       </c>
       <c r="F18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2200</v>
       </c>
       <c r="M18" s="3">
         <v>2300</v>
       </c>
       <c r="N18" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="O18" s="3">
         <v>2300</v>
@@ -1518,25 +1577,25 @@
         <v>2400</v>
       </c>
       <c r="Q18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="R18" s="3">
         <v>2400</v>
       </c>
       <c r="S18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="T18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="U18" s="3">
         <v>2300</v>
       </c>
       <c r="V18" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="W18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="X18" s="3">
         <v>2500</v>
@@ -1545,16 +1604,22 @@
         <v>2400</v>
       </c>
       <c r="Z18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>2400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1648,15 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
         <v>-1800</v>
@@ -1601,25 +1668,25 @@
         <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="I20" s="3">
         <v>-1800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-15400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2100</v>
       </c>
       <c r="O20" s="3">
         <v>-2000</v>
@@ -1628,78 +1695,84 @@
         <v>-2100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2200</v>
       </c>
       <c r="S20" s="3">
         <v>-2100</v>
       </c>
       <c r="T20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-13100</v>
       </c>
       <c r="M21" s="3">
         <v>400</v>
       </c>
       <c r="N21" s="3">
-        <v>400</v>
+        <v>-13100</v>
       </c>
       <c r="O21" s="3">
         <v>400</v>
@@ -1708,43 +1781,49 @@
         <v>400</v>
       </c>
       <c r="Q21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S21" s="3">
         <v>300</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U21" s="3">
         <v>300</v>
       </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>300</v>
+      </c>
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,43 +1902,49 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>500</v>
+      </c>
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
@@ -1871,40 +1956,46 @@
         <v>300</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>200</v>
+      </c>
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,13 +2009,13 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1945,10 +2036,10 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1963,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
@@ -1978,13 +2069,19 @@
         <v>100</v>
       </c>
       <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,11 +2465,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2356,21 +2477,21 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2676,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
         <v>1800</v>
@@ -2561,25 +2700,25 @@
         <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="3">
         <v>1800</v>
       </c>
       <c r="J32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>15400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2100</v>
       </c>
       <c r="O32" s="3">
         <v>2000</v>
@@ -2588,123 +2727,135 @@
         <v>2100</v>
       </c>
       <c r="Q32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R32" s="3">
         <v>2100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2200</v>
       </c>
       <c r="S32" s="3">
         <v>2100</v>
       </c>
       <c r="T32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3179,182 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1900</v>
       </c>
       <c r="Q41" s="3">
         <v>1600</v>
       </c>
       <c r="R41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>3900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F42" s="3">
         <v>30300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>50300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>48800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>30800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>26600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>22900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>24600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>20500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>21400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>20000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>19900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>20100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>19800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>19100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>18100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>16900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>19500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>19600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>18700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>21000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3777,19 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
         <v>4600</v>
@@ -3583,28 +3798,28 @@
         <v>4600</v>
       </c>
       <c r="G48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5000</v>
       </c>
       <c r="O48" s="3">
         <v>5000</v>
@@ -3616,40 +3831,46 @@
         <v>5000</v>
       </c>
       <c r="R48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5700</v>
       </c>
       <c r="V48" s="3">
         <v>5700</v>
       </c>
       <c r="W48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="X48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="Y48" s="3">
         <v>5800</v>
       </c>
       <c r="Z48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AB48" s="3">
         <v>5900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>6000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3681,10 +3902,10 @@
         <v>900</v>
       </c>
       <c r="M49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="N49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="O49" s="3">
         <v>14500</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>335400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>330900</v>
+      </c>
+      <c r="F54" s="3">
         <v>328100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>333900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>339600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>336900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>338100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>332600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>330700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>327700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>321100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>331000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>328800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>328800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>330800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>319400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>321000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>316700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>318400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>312900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>309400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>304500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>308500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>305300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>305800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>295100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,13 +4615,19 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
@@ -4362,27 +4635,27 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4395,11 +4668,11 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4428,8 +4701,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,43 +4873,49 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
       </c>
       <c r="M62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
@@ -4633,43 +4924,49 @@
         <v>700</v>
       </c>
       <c r="Q62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
       </c>
       <c r="T62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="U62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
       </c>
       <c r="W62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="X62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Y62" s="3">
         <v>700</v>
       </c>
       <c r="Z62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AA62" s="3">
         <v>700</v>
       </c>
       <c r="AB62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>283700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>279300</v>
+      </c>
+      <c r="F66" s="3">
         <v>276100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>281300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>286900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>284400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>285800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>280700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>278800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>275900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>269200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>265400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>263000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>262700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>264500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>252900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>254100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>249300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>251200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>245400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>241800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>237400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>241300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>238000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>238400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>227600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,79 +5694,85 @@
         <v>20600</v>
       </c>
       <c r="E72" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>20600</v>
+      </c>
+      <c r="G72" s="3">
         <v>20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>20700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>20600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>20000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>19900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>19900</v>
       </c>
       <c r="L72" s="3">
         <v>19900</v>
       </c>
       <c r="M72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="O72" s="3">
         <v>33600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>33700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>33800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>33900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>33900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>34100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>34300</v>
       </c>
       <c r="T72" s="3">
         <v>34100</v>
       </c>
       <c r="U72" s="3">
+        <v>34300</v>
+      </c>
+      <c r="V72" s="3">
+        <v>34100</v>
+      </c>
+      <c r="W72" s="3">
         <v>34400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>34600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>34100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>34200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>34300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>34500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>34700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F76" s="3">
         <v>52000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>52600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>51900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>51800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>51800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>51900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>65600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>65800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>66000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>66300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>66500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>66800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>67400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>67200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>67500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>67700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>67100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>67100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>67200</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>67500</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>67500</v>
       </c>
       <c r="AB76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>67500</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>500</v>
-      </c>
-      <c r="X89" s="3">
-        <v>600</v>
       </c>
       <c r="Y89" s="3">
         <v>500</v>
       </c>
       <c r="Z89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,20 +7053,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6639,19 +7080,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6660,31 +7101,37 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>17400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11500</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-4300</v>
       </c>
       <c r="S94" s="3">
         <v>1600</v>
       </c>
       <c r="T94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="U94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V94" s="3">
         <v>-4900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6968,13 +7435,13 @@
         <v>-300</v>
       </c>
       <c r="G96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H96" s="3">
         <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J96" s="3">
         <v>-300</v>
@@ -6983,25 +7450,25 @@
         <v>-300</v>
       </c>
       <c r="L96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N96" s="3">
         <v>-400</v>
       </c>
       <c r="O96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-400</v>
       </c>
       <c r="S96" s="3">
         <v>-400</v>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>11000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>3200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>3100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>10400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-20200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>19400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>2300</v>
       </c>
       <c r="P102" s="3">
         <v>-300</v>
       </c>
       <c r="Q102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-4500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,159 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2600</v>
       </c>
       <c r="G8" s="3">
         <v>2600</v>
       </c>
       <c r="H8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3000</v>
       </c>
       <c r="M8" s="3">
         <v>3000</v>
@@ -822,10 +826,10 @@
         <v>3000</v>
       </c>
       <c r="O8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P8" s="3">
         <v>3200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3300</v>
       </c>
       <c r="Q8" s="3">
         <v>3300</v>
@@ -834,13 +838,13 @@
         <v>3300</v>
       </c>
       <c r="S8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="T8" s="3">
         <v>3200</v>
       </c>
       <c r="U8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="V8" s="3">
         <v>3000</v>
@@ -852,7 +856,7 @@
         <v>3000</v>
       </c>
       <c r="Y8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Z8" s="3">
         <v>2900</v>
@@ -861,7 +865,7 @@
         <v>2900</v>
       </c>
       <c r="AB8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AC8" s="3">
         <v>2800</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,28 +1472,29 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1476,34 +1503,34 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
       <c r="U17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
@@ -1512,75 +1539,78 @@
         <v>700</v>
       </c>
       <c r="X17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y17" s="3">
         <v>500</v>
       </c>
       <c r="Z17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>300</v>
       </c>
       <c r="AD17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2400</v>
       </c>
       <c r="L18" s="3">
         <v>2400</v>
       </c>
       <c r="M18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2400</v>
       </c>
       <c r="S18" s="3">
         <v>2400</v>
@@ -1589,7 +1619,7 @@
         <v>2400</v>
       </c>
       <c r="U18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="V18" s="3">
         <v>2300</v>
@@ -1598,28 +1628,31 @@
         <v>2300</v>
       </c>
       <c r="X18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2500</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>2400</v>
       </c>
       <c r="AB18" s="3">
         <v>2400</v>
       </c>
       <c r="AC18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="AD18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,16 +1683,17 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1800</v>
       </c>
       <c r="F20" s="3">
         <v>-1800</v>
@@ -1674,108 +1708,111 @@
         <v>-1800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1900</v>
       </c>
       <c r="M20" s="3">
         <v>-1900</v>
       </c>
       <c r="N20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2100</v>
       </c>
       <c r="S20" s="3">
         <v>-2100</v>
       </c>
       <c r="T20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-2100</v>
       </c>
       <c r="AA20" s="3">
         <v>-2100</v>
       </c>
       <c r="AB20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="AC20" s="3">
         <v>-2000</v>
       </c>
       <c r="AD20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>600</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>600</v>
       </c>
       <c r="F21" s="3">
+        <v>600</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
       </c>
       <c r="J21" s="3">
         <v>800</v>
       </c>
       <c r="K21" s="3">
+        <v>800</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>400</v>
@@ -1787,7 +1824,7 @@
         <v>400</v>
       </c>
       <c r="S21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
@@ -1796,34 +1833,37 @@
         <v>300</v>
       </c>
       <c r="V21" s="3">
+        <v>300</v>
+      </c>
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>500</v>
       </c>
       <c r="AC21" s="3">
         <v>500</v>
       </c>
       <c r="AD21" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,46 +1948,49 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
+        <v>500</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>500</v>
       </c>
       <c r="H23" s="3">
         <v>500</v>
       </c>
       <c r="I23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>800</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
@@ -1962,40 +2005,43 @@
         <v>300</v>
       </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>300</v>
       </c>
       <c r="AA23" s="3">
         <v>300</v>
       </c>
       <c r="AB23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2015,10 +2061,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -2042,7 +2088,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
@@ -2075,13 +2121,16 @@
         <v>100</v>
       </c>
       <c r="AC24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,46 +2215,49 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>400</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>200</v>
@@ -2214,84 +2266,87 @@
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>200</v>
       </c>
       <c r="AA26" s="3">
         <v>200</v>
       </c>
       <c r="AB26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC26" s="3">
         <v>300</v>
       </c>
       <c r="AD26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>400</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>400</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>200</v>
@@ -2300,46 +2355,49 @@
         <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
       <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>200</v>
       </c>
       <c r="AA27" s="3">
         <v>200</v>
       </c>
       <c r="AB27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC27" s="3">
         <v>300</v>
       </c>
       <c r="AD27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2532,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2483,18 +2544,18 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,16 +2749,19 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>1800</v>
@@ -2706,108 +2776,111 @@
         <v>1800</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1900</v>
       </c>
       <c r="M32" s="3">
         <v>1900</v>
       </c>
       <c r="N32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O32" s="3">
         <v>15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2100</v>
       </c>
       <c r="S32" s="3">
         <v>2100</v>
       </c>
       <c r="T32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>2100</v>
       </c>
       <c r="AA32" s="3">
         <v>2100</v>
       </c>
       <c r="AB32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="AC32" s="3">
         <v>2000</v>
       </c>
       <c r="AD32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>400</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>200</v>
@@ -2816,46 +2889,49 @@
         <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
       <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>200</v>
       </c>
       <c r="AA33" s="3">
         <v>200</v>
       </c>
       <c r="AB33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC33" s="3">
         <v>300</v>
       </c>
       <c r="AD33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,46 +3016,49 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>400</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>400</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>200</v>
@@ -2988,137 +3067,143 @@
         <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
       <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>200</v>
       </c>
       <c r="AA35" s="3">
         <v>200</v>
       </c>
       <c r="AB35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC35" s="3">
         <v>300</v>
       </c>
       <c r="AD35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1700</v>
       </c>
       <c r="O41" s="3">
         <v>1700</v>
       </c>
       <c r="P41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E42" s="3">
         <v>10400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>50300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>48800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>20000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>20100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>18100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>16900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>18700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>21000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +3900,7 @@
         <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F48" s="3">
         <v>4600</v>
@@ -3804,25 +3912,25 @@
         <v>4600</v>
       </c>
       <c r="I48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J48" s="3">
         <v>4700</v>
       </c>
       <c r="K48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="L48" s="3">
         <v>4800</v>
       </c>
       <c r="M48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="N48" s="3">
         <v>4900</v>
       </c>
       <c r="O48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="P48" s="3">
         <v>5000</v>
@@ -3837,13 +3945,13 @@
         <v>5000</v>
       </c>
       <c r="T48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="U48" s="3">
         <v>5600</v>
       </c>
       <c r="V48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="W48" s="3">
         <v>5700</v>
@@ -3852,7 +3960,7 @@
         <v>5700</v>
       </c>
       <c r="Y48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="Z48" s="3">
         <v>5800</v>
@@ -3861,16 +3969,19 @@
         <v>5800</v>
       </c>
       <c r="AB48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AC48" s="3">
         <v>5900</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>6000</v>
       </c>
       <c r="AD48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3908,7 +4019,7 @@
         <v>900</v>
       </c>
       <c r="O49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="P49" s="3">
         <v>14500</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E54" s="3">
         <v>335400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>330900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>328100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>333900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>339600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>336900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>338100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>332600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>330700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>327700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>321100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>331000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>328800</v>
       </c>
       <c r="Q54" s="3">
         <v>328800</v>
       </c>
       <c r="R54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="S54" s="3">
         <v>330800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>319400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>321000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>316700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>318400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>312900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>309400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>304500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>308500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>305300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>305800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>295100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,17 +4755,20 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4641,24 +4778,24 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4674,8 +4811,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,25 +5022,28 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -4906,19 +5052,19 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
@@ -4930,7 +5076,7 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>600</v>
@@ -4939,7 +5085,7 @@
         <v>600</v>
       </c>
       <c r="V62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W62" s="3">
         <v>400</v>
@@ -4948,7 +5094,7 @@
         <v>400</v>
       </c>
       <c r="Y62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Z62" s="3">
         <v>700</v>
@@ -4957,16 +5103,19 @@
         <v>700</v>
       </c>
       <c r="AB62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC62" s="3">
         <v>800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>291800</v>
+      </c>
+      <c r="E66" s="3">
         <v>283700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>279300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>276100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>281300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>286900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>284400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>285800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>278800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>275900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>269200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>265400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>263000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>262700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>264500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>252900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>254100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>249300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>251200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>245400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>241800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>237400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>241300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>238000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>238400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>227600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,13 +5856,16 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="E72" s="3">
         <v>20600</v>
@@ -5700,22 +5874,22 @@
         <v>20600</v>
       </c>
       <c r="G72" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="H72" s="3">
         <v>20700</v>
       </c>
       <c r="I72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J72" s="3">
         <v>20600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>19900</v>
       </c>
       <c r="M72" s="3">
         <v>19900</v>
@@ -5724,55 +5898,58 @@
         <v>19900</v>
       </c>
       <c r="O72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="P72" s="3">
         <v>33600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>33900</v>
       </c>
       <c r="S72" s="3">
         <v>33900</v>
       </c>
       <c r="T72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="U72" s="3">
         <v>34100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>34600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>34100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>34200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>34300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>34500</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>34700</v>
       </c>
       <c r="AD72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,85 +6212,88 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="E76" s="3">
         <v>51600</v>
       </c>
       <c r="F76" s="3">
+        <v>51600</v>
+      </c>
+      <c r="G76" s="3">
         <v>52000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>51800</v>
       </c>
       <c r="M76" s="3">
         <v>51800</v>
       </c>
       <c r="N76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="O76" s="3">
         <v>51900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>65600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>65800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>66800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>67700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>67100</v>
       </c>
       <c r="Z76" s="3">
         <v>67100</v>
       </c>
       <c r="AA76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>67200</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>67500</v>
       </c>
       <c r="AC76" s="3">
         <v>67500</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,137 +6390,143 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>400</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>400</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>200</v>
@@ -6340,46 +6535,49 @@
         <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
       <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>200</v>
       </c>
       <c r="AA81" s="3">
         <v>200</v>
       </c>
       <c r="AB81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC81" s="3">
         <v>300</v>
       </c>
       <c r="AD81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>400</v>
       </c>
       <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>500</v>
       </c>
       <c r="Y89" s="3">
         <v>500</v>
       </c>
       <c r="Z89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA89" s="3">
         <v>600</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>500</v>
       </c>
       <c r="AB89" s="3">
         <v>500</v>
       </c>
       <c r="AC89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD89" s="3">
         <v>600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7053,11 +7274,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -7065,11 +7286,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -7086,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -7095,7 +7316,7 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -7107,20 +7328,20 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7441,10 +7675,10 @@
         <v>-300</v>
       </c>
       <c r="I96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-300</v>
       </c>
       <c r="K96" s="3">
         <v>-300</v>
@@ -7456,7 +7690,7 @@
         <v>-300</v>
       </c>
       <c r="N96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O96" s="3">
         <v>-400</v>
@@ -7465,13 +7699,13 @@
         <v>-400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R96" s="3">
         <v>-300</v>
       </c>
       <c r="S96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-400</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>10400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>300</v>
       </c>
       <c r="X102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -792,8 +792,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>3200</v>
       </c>
       <c r="E8" s="3">
         <v>3100</v>
@@ -1478,8 +1478,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
@@ -1567,8 +1567,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
         <v>2400</v>
@@ -1689,8 +1689,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
@@ -1778,8 +1778,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>600</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
@@ -2757,8 +2757,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
@@ -4255,23 +4255,23 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KFFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KFFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,166 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2600</v>
       </c>
       <c r="H8" s="3">
         <v>2600</v>
       </c>
       <c r="I8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3000</v>
       </c>
       <c r="N8" s="3">
         <v>3000</v>
@@ -829,10 +833,10 @@
         <v>3000</v>
       </c>
       <c r="P8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3300</v>
       </c>
       <c r="R8" s="3">
         <v>3300</v>
@@ -841,13 +845,13 @@
         <v>3300</v>
       </c>
       <c r="T8" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="U8" s="3">
         <v>3200</v>
       </c>
       <c r="V8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="W8" s="3">
         <v>3000</v>
@@ -859,7 +863,7 @@
         <v>3000</v>
       </c>
       <c r="Z8" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="AA8" s="3">
         <v>2900</v>
@@ -868,7 +872,7 @@
         <v>2900</v>
       </c>
       <c r="AC8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AD8" s="3">
         <v>2800</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,31 +1499,32 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1506,34 +1533,34 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
@@ -1542,78 +1569,81 @@
         <v>700</v>
       </c>
       <c r="Y17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Z17" s="3">
         <v>500</v>
       </c>
       <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>300</v>
       </c>
       <c r="AE17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2400</v>
       </c>
       <c r="M18" s="3">
         <v>2400</v>
       </c>
       <c r="N18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2400</v>
       </c>
       <c r="T18" s="3">
         <v>2400</v>
@@ -1622,7 +1652,7 @@
         <v>2400</v>
       </c>
       <c r="V18" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="W18" s="3">
         <v>2300</v>
@@ -1631,28 +1661,31 @@
         <v>2300</v>
       </c>
       <c r="Y18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2500</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>2400</v>
       </c>
       <c r="AC18" s="3">
         <v>2400</v>
       </c>
       <c r="AD18" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="AE18" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,10 +1727,10 @@
         <v>-1800</v>
       </c>
       <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1800</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
@@ -1711,111 +1745,114 @@
         <v>-1800</v>
       </c>
       <c r="K20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1900</v>
       </c>
       <c r="N20" s="3">
         <v>-1900</v>
       </c>
       <c r="O20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-15400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2100</v>
       </c>
       <c r="T20" s="3">
         <v>-2100</v>
       </c>
       <c r="U20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-2100</v>
       </c>
       <c r="AB20" s="3">
         <v>-2100</v>
       </c>
       <c r="AC20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="AD20" s="3">
         <v>-2000</v>
       </c>
       <c r="AE20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>600</v>
       </c>
       <c r="F21" s="3">
         <v>600</v>
       </c>
       <c r="G21" s="3">
+        <v>600</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>800</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
       </c>
       <c r="L21" s="3">
+        <v>800</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>400</v>
       </c>
       <c r="Q21" s="3">
         <v>400</v>
@@ -1827,7 +1864,7 @@
         <v>400</v>
       </c>
       <c r="T21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U21" s="3">
         <v>300</v>
@@ -1836,34 +1873,37 @@
         <v>300</v>
       </c>
       <c r="W21" s="3">
+        <v>300</v>
+      </c>
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>300</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>500</v>
       </c>
       <c r="AD21" s="3">
         <v>500</v>
       </c>
       <c r="AE21" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,49 +1991,52 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>500</v>
       </c>
       <c r="F23" s="3">
         <v>500</v>
       </c>
       <c r="G23" s="3">
+        <v>500</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>500</v>
       </c>
       <c r="I23" s="3">
         <v>500</v>
       </c>
       <c r="J23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>800</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>300</v>
@@ -2008,45 +2051,48 @@
         <v>300</v>
       </c>
       <c r="U23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V23" s="3">
         <v>200</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>300</v>
       </c>
       <c r="AB23" s="3">
         <v>300</v>
       </c>
       <c r="AC23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -2064,10 +2110,10 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -2091,7 +2137,7 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -2109,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
@@ -2124,13 +2170,16 @@
         <v>100</v>
       </c>
       <c r="AD24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,49 +2267,52 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
       </c>
       <c r="G26" s="3">
+        <v>400</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
@@ -2269,87 +2321,90 @@
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
       </c>
       <c r="V26" s="3">
+        <v>200</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>200</v>
       </c>
       <c r="AB26" s="3">
         <v>200</v>
       </c>
       <c r="AC26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD26" s="3">
         <v>300</v>
       </c>
       <c r="AE26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>400</v>
       </c>
       <c r="G27" s="3">
+        <v>400</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
@@ -2358,46 +2413,49 @@
         <v>200</v>
       </c>
       <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
       </c>
       <c r="V27" s="3">
+        <v>200</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>200</v>
       </c>
       <c r="AB27" s="3">
         <v>200</v>
       </c>
       <c r="AC27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD27" s="3">
         <v>300</v>
       </c>
       <c r="AE27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2547,18 +2608,18 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>300</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,10 +2831,10 @@
         <v>1800</v>
       </c>
       <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1800</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
@@ -2779,111 +2849,114 @@
         <v>1800</v>
       </c>
       <c r="K32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1900</v>
       </c>
       <c r="N32" s="3">
         <v>1900</v>
       </c>
       <c r="O32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P32" s="3">
         <v>15400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2100</v>
       </c>
       <c r="T32" s="3">
         <v>2100</v>
       </c>
       <c r="U32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>2100</v>
       </c>
       <c r="AB32" s="3">
         <v>2100</v>
       </c>
       <c r="AC32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="AD32" s="3">
         <v>2000</v>
       </c>
       <c r="AE32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF32" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>400</v>
       </c>
       <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
@@ -2892,46 +2965,49 @@
         <v>200</v>
       </c>
       <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>200</v>
       </c>
       <c r="V33" s="3">
+        <v>200</v>
+      </c>
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>200</v>
       </c>
       <c r="AB33" s="3">
         <v>200</v>
       </c>
       <c r="AC33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD33" s="3">
         <v>300</v>
       </c>
       <c r="AE33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,49 +3095,52 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>400</v>
       </c>
       <c r="G35" s="3">
+        <v>400</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
@@ -3070,140 +3149,146 @@
         <v>200</v>
       </c>
       <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>200</v>
       </c>
       <c r="V35" s="3">
+        <v>200</v>
+      </c>
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>200</v>
       </c>
       <c r="AB35" s="3">
         <v>200</v>
       </c>
       <c r="AC35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD35" s="3">
         <v>300</v>
       </c>
       <c r="AE35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1700</v>
       </c>
       <c r="P41" s="3">
         <v>1700</v>
       </c>
       <c r="Q41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3366,88 +3456,91 @@
         <v>10500</v>
       </c>
       <c r="E42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F42" s="3">
         <v>10400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>50300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>48800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>20500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>20000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>20100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>18100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>16900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>19600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>18700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>21000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,19 +3996,22 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
         <v>4500</v>
       </c>
       <c r="F48" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G48" s="3">
         <v>4600</v>
@@ -3915,25 +4023,25 @@
         <v>4600</v>
       </c>
       <c r="J48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K48" s="3">
         <v>4700</v>
       </c>
       <c r="L48" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="M48" s="3">
         <v>4800</v>
       </c>
       <c r="N48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="O48" s="3">
         <v>4900</v>
       </c>
       <c r="P48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="Q48" s="3">
         <v>5000</v>
@@ -3948,13 +4056,13 @@
         <v>5000</v>
       </c>
       <c r="U48" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="V48" s="3">
         <v>5600</v>
       </c>
       <c r="W48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="X48" s="3">
         <v>5700</v>
@@ -3963,7 +4071,7 @@
         <v>5700</v>
       </c>
       <c r="Z48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="AA48" s="3">
         <v>5800</v>
@@ -3972,16 +4080,19 @@
         <v>5800</v>
       </c>
       <c r="AC48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AD48" s="3">
         <v>5900</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>6000</v>
       </c>
       <c r="AE48" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4022,7 +4133,7 @@
         <v>900</v>
       </c>
       <c r="P49" s="3">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="Q49" s="3">
         <v>14500</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,16 +4364,19 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -4273,8 +4393,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E54" s="3">
         <v>342900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>335400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>330900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>328100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>333900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>339600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>336900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>338100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>332600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>330700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>327700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>321100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>331000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>328800</v>
       </c>
       <c r="R54" s="3">
         <v>328800</v>
       </c>
       <c r="S54" s="3">
+        <v>328800</v>
+      </c>
+      <c r="T54" s="3">
         <v>330800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>319400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>321000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>316700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>318400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>312900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>309400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>304500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>308500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>305300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>305800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>295100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>291900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,13 +4710,14 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,20 +4892,23 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4781,24 +4918,24 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4814,8 +4951,8 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,28 +5168,31 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
@@ -5055,19 +5201,19 @@
         <v>600</v>
       </c>
       <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -5079,7 +5225,7 @@
         <v>700</v>
       </c>
       <c r="T62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
@@ -5088,7 +5234,7 @@
         <v>600</v>
       </c>
       <c r="W62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
@@ -5097,7 +5243,7 @@
         <v>400</v>
       </c>
       <c r="Z62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AA62" s="3">
         <v>700</v>
@@ -5106,16 +5252,19 @@
         <v>700</v>
       </c>
       <c r="AC62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD62" s="3">
         <v>800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>298300</v>
+      </c>
+      <c r="E66" s="3">
         <v>291800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>283700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>279300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>276100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>281300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>286900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>284400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>285800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>278800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>275900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>269200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>265400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>263000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>262700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>264500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>252900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>254100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>249300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>251200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>245400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>241800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>237400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>241300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>238000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>238400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>227600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>224400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,16 +6030,19 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E72" s="3">
         <v>20400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>20600</v>
       </c>
       <c r="F72" s="3">
         <v>20600</v>
@@ -5877,22 +6051,22 @@
         <v>20600</v>
       </c>
       <c r="H72" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="I72" s="3">
         <v>20700</v>
       </c>
       <c r="J72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K72" s="3">
         <v>20600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>19900</v>
       </c>
       <c r="N72" s="3">
         <v>19900</v>
@@ -5901,55 +6075,58 @@
         <v>19900</v>
       </c>
       <c r="P72" s="3">
+        <v>19900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>33600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>33900</v>
       </c>
       <c r="T72" s="3">
         <v>33900</v>
       </c>
       <c r="U72" s="3">
+        <v>33900</v>
+      </c>
+      <c r="V72" s="3">
         <v>34100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>34400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>34600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>34100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>34200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>34300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>34500</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>34700</v>
       </c>
       <c r="AE72" s="3">
         <v>34700</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,88 +6398,91 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E76" s="3">
         <v>51100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>51600</v>
       </c>
       <c r="F76" s="3">
         <v>51600</v>
       </c>
       <c r="G76" s="3">
+        <v>51600</v>
+      </c>
+      <c r="H76" s="3">
         <v>52000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>51800</v>
       </c>
       <c r="N76" s="3">
         <v>51800</v>
       </c>
       <c r="O76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="P76" s="3">
         <v>51900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>65600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>65800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>66500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>66800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>67500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>67700</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>67100</v>
       </c>
       <c r="AA76" s="3">
         <v>67100</v>
       </c>
       <c r="AB76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="AC76" s="3">
         <v>67200</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>67500</v>
       </c>
       <c r="AD76" s="3">
         <v>67500</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3">
         <v>67500</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,143 +6582,149 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>400</v>
       </c>
       <c r="G81" s="3">
+        <v>400</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
@@ -6538,46 +6733,49 @@
         <v>200</v>
       </c>
       <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>200</v>
       </c>
       <c r="V81" s="3">
+        <v>200</v>
+      </c>
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>200</v>
       </c>
       <c r="AB81" s="3">
         <v>200</v>
       </c>
       <c r="AC81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD81" s="3">
         <v>300</v>
       </c>
       <c r="AE81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,88 +7369,91 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>400</v>
       </c>
       <c r="G89" s="3">
+        <v>400</v>
+      </c>
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>500</v>
       </c>
       <c r="Z89" s="3">
         <v>500</v>
       </c>
       <c r="AA89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB89" s="3">
         <v>600</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>500</v>
       </c>
       <c r="AC89" s="3">
         <v>500</v>
       </c>
       <c r="AD89" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE89" s="3">
         <v>600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7277,11 +7498,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -7289,11 +7510,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -7310,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -7319,7 +7540,7 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7331,20 +7552,20 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7678,10 +7912,10 @@
         <v>-300</v>
       </c>
       <c r="J96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-300</v>
       </c>
       <c r="L96" s="3">
         <v>-300</v>
@@ -7693,7 +7927,7 @@
         <v>-300</v>
       </c>
       <c r="O96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P96" s="3">
         <v>-400</v>
@@ -7702,13 +7936,13 @@
         <v>-400</v>
       </c>
       <c r="R96" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S96" s="3">
         <v>-300</v>
       </c>
       <c r="T96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U96" s="3">
         <v>-400</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>10400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>300</v>
       </c>
       <c r="Y102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4500</v>
       </c>
     </row>
